--- a/data/trans_bre/P71_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,12</t>
+          <t>2,32; 11,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,23</t>
+          <t>-5,83; 5,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,38</t>
+          <t>-3,91; 5,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,82</t>
+          <t>-3,99; 1,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,72; 231,46</t>
+          <t>23,63; 233,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 43,28</t>
+          <t>-33,74; 45,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 54,59</t>
+          <t>-27,35; 54,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,52; 28,56</t>
+          <t>-62,24; 31,76</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,11</t>
+          <t>1,26; 11,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 9,25</t>
+          <t>-1,9; 9,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 9,35</t>
+          <t>-3,54; 9,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,32</t>
+          <t>-0,13; 5,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 118,55</t>
+          <t>7,04; 116,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 86,86</t>
+          <t>-12,44; 75,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 49,19</t>
+          <t>-14,15; 50,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 204,31</t>
+          <t>-3,73; 222,51</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 14,13</t>
+          <t>-0,42; 14,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 2,11</t>
+          <t>-11,19; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 5,09</t>
+          <t>-13,26; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 13,13</t>
+          <t>-3,19; 11,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 109,51</t>
+          <t>-1,83; 108,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 6,68</t>
+          <t>-31,64; 9,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 14,34</t>
+          <t>-33,65; 13,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 368,7</t>
+          <t>-25,29; 283,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 7,37</t>
+          <t>-1,45; 7,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 3,06</t>
+          <t>-6,13; 3,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 3,88</t>
+          <t>-4,54; 4,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 1,56</t>
+          <t>-8,85; 1,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 34,42</t>
+          <t>-6,05; 32,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 8,36</t>
+          <t>-15,44; 10,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 10,6</t>
+          <t>-11,22; 12,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 10,45</t>
+          <t>-56,45; 12,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 9,35</t>
+          <t>-5,26; 8,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 6,01</t>
+          <t>-6,05; 5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,51</t>
+          <t>0,02; 11,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 27,68</t>
+          <t>2,47; 28,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 32,45</t>
+          <t>-14,22; 27,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 16,23</t>
+          <t>-13,57; 15,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 26,3</t>
+          <t>-0,26; 25,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 121,98</t>
+          <t>8,63; 127,68</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,08; 25,37</t>
+          <t>15,68; 25,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 16,52</t>
+          <t>4,57; 16,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 16,11</t>
+          <t>4,35; 16,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 10,61</t>
+          <t>-5,24; 10,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>102,99; 302,62</t>
+          <t>99,53; 290,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 101,78</t>
+          <t>17,27; 98,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 91,07</t>
+          <t>17,06; 90,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 142,82</t>
+          <t>-24,93; 135,31</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,82</t>
+          <t>7,72; 11,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,16</t>
+          <t>-1,29; 3,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 4,47</t>
+          <t>-0,01; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 10,93</t>
+          <t>1,51; 11,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,53; 68,31</t>
+          <t>40,36; 68,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 10,66</t>
+          <t>-3,97; 11,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 13,56</t>
+          <t>-0,07; 13,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 98,22</t>
+          <t>11,84; 101,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
